--- a/simulation/data/season28.xlsx
+++ b/simulation/data/season28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oggnik\Documents\Personal\programming\python\tf2elo\simulation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161CF6E-D7C2-4C81-914E-6424EC84C9DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47937AEF-F685-4828-87B4-4B75497104C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="38">
   <si>
     <t>Home</t>
   </si>
@@ -619,7 +619,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -651,9 +651,6 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
@@ -668,9 +665,6 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
@@ -685,9 +679,6 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
         <v>37</v>
       </c>
@@ -702,9 +693,6 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
         <v>37</v>
       </c>
@@ -719,9 +707,6 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
@@ -736,9 +721,6 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -753,9 +735,6 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
@@ -770,9 +749,6 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
@@ -787,9 +763,6 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
@@ -804,9 +777,6 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
@@ -821,9 +791,6 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
@@ -838,9 +805,6 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
@@ -855,9 +819,6 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -872,9 +833,6 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
@@ -889,9 +847,6 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
@@ -906,9 +861,6 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
@@ -923,9 +875,6 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
@@ -940,9 +889,6 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
@@ -957,9 +903,6 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
@@ -974,9 +917,6 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
       <c r="E21" t="s">
         <v>20</v>
       </c>
@@ -991,9 +931,6 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
       <c r="E22" t="s">
         <v>35</v>
       </c>
@@ -1008,9 +945,6 @@
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
       <c r="E23" t="s">
         <v>35</v>
       </c>
@@ -1025,9 +959,6 @@
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
       <c r="E24" t="s">
         <v>35</v>
       </c>
@@ -1042,9 +973,6 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
@@ -1059,9 +987,6 @@
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
       <c r="E26" t="s">
         <v>27</v>
       </c>
@@ -1076,9 +1001,6 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
       <c r="E27" t="s">
         <v>27</v>
       </c>
@@ -1093,9 +1015,6 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
       <c r="E28" t="s">
         <v>27</v>
       </c>
@@ -1110,9 +1029,6 @@
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
@@ -1127,9 +1043,6 @@
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
@@ -1144,9 +1057,6 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
@@ -1161,9 +1071,6 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
       <c r="E32" t="s">
         <v>26</v>
       </c>
@@ -1178,9 +1085,6 @@
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
       <c r="E33" t="s">
         <v>26</v>
       </c>
@@ -1195,9 +1099,6 @@
       <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
       <c r="E34" t="s">
         <v>25</v>
       </c>
@@ -1212,9 +1113,6 @@
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
       <c r="E35" t="s">
         <v>25</v>
       </c>
@@ -1229,9 +1127,6 @@
       <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
       <c r="E36" t="s">
         <v>25</v>
       </c>
@@ -1246,9 +1141,6 @@
       <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
       <c r="E37" t="s">
         <v>25</v>
       </c>
@@ -1263,9 +1155,6 @@
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
       <c r="E38" t="s">
         <v>24</v>
       </c>
@@ -1280,9 +1169,6 @@
       <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
       <c r="E39" t="s">
         <v>24</v>
       </c>
@@ -1297,9 +1183,6 @@
       <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
       <c r="E40" t="s">
         <v>24</v>
       </c>
@@ -1314,9 +1197,6 @@
       <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
       <c r="E41" t="s">
         <v>24</v>
       </c>
@@ -1331,9 +1211,6 @@
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
       <c r="E42" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1225,6 @@
       <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D43" t="s">
-        <v>16</v>
-      </c>
       <c r="E43" t="s">
         <v>23</v>
       </c>
@@ -1365,9 +1239,6 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
-        <v>16</v>
-      </c>
       <c r="E44" t="s">
         <v>23</v>
       </c>
@@ -1382,9 +1253,6 @@
       <c r="C45" t="s">
         <v>15</v>
       </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
       <c r="E45" t="s">
         <v>23</v>
       </c>
@@ -1399,9 +1267,6 @@
       <c r="C46" t="s">
         <v>15</v>
       </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
@@ -1416,9 +1281,6 @@
       <c r="C47" t="s">
         <v>15</v>
       </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
@@ -1433,9 +1295,6 @@
       <c r="C48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
@@ -1450,9 +1309,6 @@
       <c r="C49" t="s">
         <v>15</v>
       </c>
-      <c r="D49" t="s">
-        <v>16</v>
-      </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
@@ -1467,9 +1323,6 @@
       <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
       <c r="E50" t="s">
         <v>29</v>
       </c>
@@ -1484,9 +1337,6 @@
       <c r="C51" t="s">
         <v>15</v>
       </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
       <c r="E51" t="s">
         <v>29</v>
       </c>
@@ -1501,9 +1351,6 @@
       <c r="C52" t="s">
         <v>15</v>
       </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
       <c r="E52" t="s">
         <v>29</v>
       </c>
@@ -1518,9 +1365,6 @@
       <c r="C53" t="s">
         <v>15</v>
       </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
       <c r="E53" t="s">
         <v>29</v>
       </c>
@@ -1535,9 +1379,6 @@
       <c r="C54" t="s">
         <v>15</v>
       </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
       <c r="E54" t="s">
         <v>36</v>
       </c>
@@ -1552,9 +1393,6 @@
       <c r="C55" t="s">
         <v>15</v>
       </c>
-      <c r="D55" t="s">
-        <v>16</v>
-      </c>
       <c r="E55" t="s">
         <v>36</v>
       </c>
@@ -1569,9 +1407,6 @@
       <c r="C56" t="s">
         <v>15</v>
       </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
       <c r="E56" t="s">
         <v>36</v>
       </c>
@@ -1586,9 +1421,6 @@
       <c r="C57" t="s">
         <v>15</v>
       </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
       <c r="E57" t="s">
         <v>36</v>
       </c>
@@ -1603,9 +1435,6 @@
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
       <c r="E58" t="s">
         <v>28</v>
       </c>
@@ -1620,9 +1449,6 @@
       <c r="C59" t="s">
         <v>15</v>
       </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
       <c r="E59" t="s">
         <v>28</v>
       </c>
@@ -1637,9 +1463,6 @@
       <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
       <c r="E60" t="s">
         <v>28</v>
       </c>
@@ -1654,9 +1477,6 @@
       <c r="C61" t="s">
         <v>15</v>
       </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
       <c r="E61" t="s">
         <v>28</v>
       </c>
@@ -1671,9 +1491,6 @@
       <c r="C62" t="s">
         <v>15</v>
       </c>
-      <c r="D62" t="s">
-        <v>16</v>
-      </c>
       <c r="E62" t="s">
         <v>32</v>
       </c>
@@ -1688,9 +1505,6 @@
       <c r="C63" t="s">
         <v>15</v>
       </c>
-      <c r="D63" t="s">
-        <v>16</v>
-      </c>
       <c r="E63" t="s">
         <v>32</v>
       </c>
@@ -1705,9 +1519,6 @@
       <c r="C64" t="s">
         <v>15</v>
       </c>
-      <c r="D64" t="s">
-        <v>16</v>
-      </c>
       <c r="E64" t="s">
         <v>32</v>
       </c>
@@ -1722,9 +1533,6 @@
       <c r="C65" t="s">
         <v>15</v>
       </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
       <c r="E65" t="s">
         <v>32</v>
       </c>
@@ -1739,9 +1547,6 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
       <c r="E66" t="s">
         <v>31</v>
       </c>
@@ -1756,9 +1561,6 @@
       <c r="C67" t="s">
         <v>15</v>
       </c>
-      <c r="D67" t="s">
-        <v>16</v>
-      </c>
       <c r="E67" t="s">
         <v>31</v>
       </c>
@@ -1773,9 +1575,6 @@
       <c r="C68" t="s">
         <v>15</v>
       </c>
-      <c r="D68" t="s">
-        <v>16</v>
-      </c>
       <c r="E68" t="s">
         <v>31</v>
       </c>
@@ -1790,9 +1589,6 @@
       <c r="C69" t="s">
         <v>15</v>
       </c>
-      <c r="D69" t="s">
-        <v>16</v>
-      </c>
       <c r="E69" t="s">
         <v>31</v>
       </c>
@@ -1807,9 +1603,6 @@
       <c r="C70" t="s">
         <v>15</v>
       </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
       <c r="E70" t="s">
         <v>30</v>
       </c>
@@ -1824,9 +1617,6 @@
       <c r="C71" t="s">
         <v>15</v>
       </c>
-      <c r="D71" t="s">
-        <v>16</v>
-      </c>
       <c r="E71" t="s">
         <v>30</v>
       </c>
@@ -1841,9 +1631,6 @@
       <c r="C72" t="s">
         <v>15</v>
       </c>
-      <c r="D72" t="s">
-        <v>16</v>
-      </c>
       <c r="E72" t="s">
         <v>30</v>
       </c>
@@ -1857,9 +1644,6 @@
       </c>
       <c r="C73" t="s">
         <v>15</v>
-      </c>
-      <c r="D73" t="s">
-        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>30</v>
